--- a/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
+++ b/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F88235-2709-42CA-938F-764055C4D29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AE0121-5458-4EDF-9121-348DD3D7DC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -53,13 +53,13 @@
     <t>Above 10:</t>
   </si>
   <si>
-    <t>12? Completed</t>
-  </si>
-  <si>
     <t xml:space="preserve">(Nate DM-1) </t>
   </si>
   <si>
     <t>Start: Winter 22 (1/23/22)</t>
+  </si>
+  <si>
+    <t>2 Completed</t>
   </si>
 </sst>
 </file>
@@ -315,7 +315,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -329,20 +329,29 @@
                 <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -945,7 +954,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -959,20 +968,29 @@
                 <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2658,7 +2676,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2701,7 +2719,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>8.3333333333333321</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
@@ -2718,11 +2736,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>8.3333333333333321</v>
+        <v>13.636363636363635</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
@@ -2781,7 +2799,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>8.3333333333333321</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
@@ -2840,7 +2858,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>8.3333333333333321</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1">
@@ -2861,7 +2879,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>8.3333333333333321</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
@@ -2882,7 +2900,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>8.3333333333333321</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1">
@@ -2898,10 +2916,12 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>0</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1">
@@ -2937,11 +2957,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>8.3333333333333321</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
@@ -2977,11 +2997,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>16.666666666666664</v>
+        <v>13.636363636363635</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
@@ -3002,7 +3022,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>8.3333333333333321</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
@@ -3018,10 +3038,12 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>0</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
@@ -3038,11 +3060,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>8.3333333333333321</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1">
@@ -3061,10 +3083,12 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>0</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
@@ -3081,11 +3105,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>8.3333333333333321</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
@@ -3099,11 +3123,11 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="S22">
         <f>SUM(S2:S21)</f>
@@ -3119,11 +3143,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>49.999999999999986</v>
+        <v>36.363636363636367</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3132,21 +3156,21 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>49.999999999999986</v>
+        <v>63.636363636363647</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
+++ b/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AE0121-5458-4EDF-9121-348DD3D7DC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6045C23E-4128-4D19-ABAF-8611ACD9FD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -327,19 +327,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2</c:v>
@@ -966,19 +969,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2</c:v>
@@ -2676,7 +2682,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2719,7 +2725,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>4.5454545454545459</v>
+        <v>3.4482758620689653</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
@@ -2740,7 +2746,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>13.636363636363635</v>
+        <v>10.344827586206897</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
@@ -2799,7 +2805,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>4.5454545454545459</v>
+        <v>3.4482758620689653</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
@@ -2858,7 +2864,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>4.5454545454545459</v>
+        <v>3.4482758620689653</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1">
@@ -2879,7 +2885,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>4.5454545454545459</v>
+        <v>3.4482758620689653</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
@@ -2896,11 +2902,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>4.5454545454545459</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1">
@@ -2917,11 +2923,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>4.5454545454545459</v>
+        <v>13.793103448275861</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1">
@@ -2961,7 +2967,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>9.0909090909090917</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
@@ -2977,10 +2983,12 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>0</v>
+        <v>3.4482758620689653</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
@@ -3001,7 +3009,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>13.636363636363635</v>
+        <v>10.344827586206897</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
@@ -3018,11 +3026,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>4.5454545454545459</v>
+        <v>10.344827586206897</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
@@ -3043,7 +3051,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>9.0909090909090917</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
@@ -3064,7 +3072,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>9.0909090909090917</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1">
@@ -3088,7 +3096,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>4.5454545454545459</v>
+        <v>3.4482758620689653</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
@@ -3109,7 +3117,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>9.0909090909090917</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
@@ -3127,7 +3135,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="S22">
         <f>SUM(S2:S21)</f>
@@ -3143,11 +3151,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>36.363636363636367</v>
+        <v>31.034482758620683</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3156,11 +3164,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>63.636363636363647</v>
+        <v>68.965517241379303</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
+++ b/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6045C23E-4128-4D19-ABAF-8611ACD9FD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9EF2FE-E619-4573-9A74-9FA85DA77665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -312,13 +312,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -333,7 +333,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -954,13 +954,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -975,7 +975,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -2681,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8EF6D9-5AD5-43CA-9518-DC5AA8E532CB}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2721,11 +2721,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>3.4482758620689653</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
@@ -2742,11 +2742,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>10.344827586206897</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
@@ -2801,11 +2801,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>3.4482758620689653</v>
+        <v>8.8235294117647065</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>3.4482758620689653</v>
+        <v>2.9411764705882351</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>3.4482758620689653</v>
+        <v>2.9411764705882351</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>6.8965517241379306</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>13.793103448275861</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1">
@@ -2963,11 +2963,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>6.8965517241379306</v>
+        <v>8.8235294117647065</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>3.4482758620689653</v>
+        <v>2.9411764705882351</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>10.344827586206897</v>
+        <v>8.8235294117647065</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>10.344827586206897</v>
+        <v>8.8235294117647065</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>6.8965517241379306</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>6.8965517241379306</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>3.4482758620689653</v>
+        <v>2.9411764705882351</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>6.8965517241379306</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="S22">
         <f>SUM(S2:S21)</f>
@@ -3151,11 +3151,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>31.034482758620683</v>
+        <v>38.235294117647058</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3164,11 +3164,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>68.965517241379303</v>
+        <v>61.764705882352935</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
+++ b/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9EF2FE-E619-4573-9A74-9FA85DA77665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E0F55B-0068-4287-90E7-BF2D43FF40BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -317,9 +317,18 @@
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
@@ -339,7 +348,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3</c:v>
@@ -348,13 +357,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,9 +968,18 @@
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
@@ -981,7 +999,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3</c:v>
@@ -990,13 +1008,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2681,8 +2699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8EF6D9-5AD5-43CA-9518-DC5AA8E532CB}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2725,7 +2743,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>5.8823529411764701</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
@@ -2746,7 +2764,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>11.76470588235294</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
@@ -2762,10 +2780,12 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>0</v>
+        <v>2.3809523809523809</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1">
@@ -2781,10 +2801,12 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>0</v>
+        <v>2.3809523809523809</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1">
@@ -2805,7 +2827,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>8.8235294117647065</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
@@ -2840,10 +2862,12 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>0</v>
+        <v>2.3809523809523809</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1">
@@ -2864,7 +2888,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>2.9411764705882351</v>
+        <v>2.3809523809523809</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1">
@@ -2885,7 +2909,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>2.9411764705882351</v>
+        <v>2.3809523809523809</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
@@ -2906,7 +2930,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>5.8823529411764701</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1">
@@ -2927,7 +2951,7 @@
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>11.76470588235294</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1">
@@ -2967,7 +2991,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>8.8235294117647065</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
@@ -2988,7 +3012,7 @@
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>2.9411764705882351</v>
+        <v>2.3809523809523809</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
@@ -3005,11 +3029,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>8.8235294117647065</v>
+        <v>11.904761904761903</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
@@ -3030,7 +3054,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>8.8235294117647065</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
@@ -3051,7 +3075,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>5.8823529411764701</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
@@ -3068,11 +3092,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>5.8823529411764701</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1">
@@ -3092,11 +3116,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>2.9411764705882351</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
@@ -3113,11 +3137,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>5.8823529411764701</v>
+        <v>7.1428571428571423</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
@@ -3135,7 +3159,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S22">
         <f>SUM(S2:S21)</f>
@@ -3151,11 +3175,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>38.235294117647058</v>
+        <v>38.095238095238088</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3164,11 +3188,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>61.764705882352935</v>
+        <v>61.904761904761884</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
+++ b/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E0F55B-0068-4287-90E7-BF2D43FF40BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB23B851-D2CE-40C0-BBC4-A5CE0D406707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -312,40 +312,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5</c:v>
@@ -363,7 +366,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -963,40 +966,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5</c:v>
@@ -1014,7 +1020,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2700,7 +2706,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2739,11 +2745,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>4.7619047619047619</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
@@ -2760,11 +2766,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>9.5238095238095237</v>
+        <v>8.1967213114754092</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
@@ -2781,11 +2787,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>2.3809523809523809</v>
+        <v>8.1967213114754092</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1">
@@ -2802,11 +2808,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>2.3809523809523809</v>
+        <v>3.278688524590164</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1">
@@ -2827,7 +2833,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>7.1428571428571423</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
@@ -2863,11 +2869,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>2.3809523809523809</v>
+        <v>6.557377049180328</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1">
@@ -2884,11 +2890,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>2.3809523809523809</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1">
@@ -2909,7 +2915,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>2.3809523809523809</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
@@ -2926,11 +2932,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>4.7619047619047619</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1">
@@ -2951,7 +2957,7 @@
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>9.5238095238095237</v>
+        <v>6.557377049180328</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1">
@@ -2967,10 +2973,12 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>0</v>
+        <v>3.278688524590164</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1">
@@ -2987,11 +2995,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>7.1428571428571423</v>
+        <v>8.1967213114754092</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
@@ -3008,11 +3016,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>2.3809523809523809</v>
+        <v>3.278688524590164</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
@@ -3033,7 +3041,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>11.904761904761903</v>
+        <v>8.1967213114754092</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
@@ -3054,7 +3062,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>7.1428571428571423</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
@@ -3075,7 +3083,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>4.7619047619047619</v>
+        <v>3.278688524590164</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
@@ -3096,7 +3104,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>7.1428571428571423</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1">
@@ -3120,7 +3128,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>4.7619047619047619</v>
+        <v>3.278688524590164</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
@@ -3137,11 +3145,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>7.1428571428571423</v>
+        <v>6.557377049180328</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
@@ -3159,7 +3167,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="S22">
         <f>SUM(S2:S21)</f>
@@ -3175,11 +3183,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>38.095238095238088</v>
+        <v>47.540983606557383</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3188,11 +3196,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>61.904761904761884</v>
+        <v>52.459016393442624</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
+++ b/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB23B851-D2CE-40C0-BBC4-A5CE0D406707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AA88BD-2190-4998-8B7C-C45CC78BEE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -315,7 +315,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -969,7 +969,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -2706,7 +2706,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>4.918032786885246</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
@@ -2766,11 +2766,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>8.1967213114754092</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>8.1967213114754092</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>3.278688524590164</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>4.918032786885246</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>6.557377049180328</v>
+        <v>6.4516129032258061</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>4.918032786885246</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>1.639344262295082</v>
+        <v>1.6129032258064515</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>4.918032786885246</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>6.557377049180328</v>
+        <v>6.4516129032258061</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>3.278688524590164</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>8.1967213114754092</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>3.278688524590164</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>8.1967213114754092</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>4.918032786885246</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>3.278688524590164</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>4.918032786885246</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>3.278688524590164</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>6.557377049180328</v>
+        <v>6.4516129032258061</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S22">
         <f>SUM(S2:S21)</f>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>47.540983606557383</v>
+        <v>48.387096774193537</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>52.459016393442624</v>
+        <v>51.612903225806448</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
+++ b/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AA88BD-2190-4998-8B7C-C45CC78BEE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD857809-7759-44CC-BA7F-5DCD45089371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <t>Start: Winter 22 (1/23/22)</t>
   </si>
   <si>
-    <t>2 Completed</t>
+    <t>8 Completed</t>
   </si>
 </sst>
 </file>
@@ -324,7 +324,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
@@ -345,7 +345,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
@@ -366,7 +366,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -978,7 +978,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
@@ -999,7 +999,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
@@ -1020,7 +1020,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2705,8 +2705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8EF6D9-5AD5-43CA-9518-DC5AA8E532CB}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>4.838709677419355</v>
+        <v>4.6153846153846159</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>9.67741935483871</v>
+        <v>9.2307692307692317</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>8.064516129032258</v>
+        <v>7.6923076923076925</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>3.225806451612903</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1">
@@ -2829,11 +2829,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>4.838709677419355</v>
+        <v>6.1538461538461542</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>6.4516129032258061</v>
+        <v>6.1538461538461542</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>4.838709677419355</v>
+        <v>4.6153846153846159</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>1.6129032258064515</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>4.838709677419355</v>
+        <v>4.6153846153846159</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>6.4516129032258061</v>
+        <v>6.1538461538461542</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>3.225806451612903</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1">
@@ -2995,11 +2995,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>8.064516129032258</v>
+        <v>9.2307692307692317</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>3.225806451612903</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>8.064516129032258</v>
+        <v>7.6923076923076925</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>4.838709677419355</v>
+        <v>4.6153846153846159</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>3.225806451612903</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>4.838709677419355</v>
+        <v>4.6153846153846159</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>3.225806451612903</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
@@ -3145,11 +3145,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>6.4516129032258061</v>
+        <v>7.6923076923076925</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="S22">
         <f>SUM(S2:S21)</f>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>48.387096774193537</v>
+        <v>47.692307692307693</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3196,11 +3196,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>51.612903225806448</v>
+        <v>52.307692307692314</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
+++ b/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD857809-7759-44CC-BA7F-5DCD45089371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0709C97F-EEED-4FFD-8ECC-A39D76877CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -327,7 +327,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
@@ -981,7 +981,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
@@ -2706,7 +2706,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>4.6153846153846159</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>9.2307692307692317</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>7.6923076923076925</v>
+        <v>7.5757575757575761</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>3.0769230769230771</v>
+        <v>3.0303030303030303</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>6.1538461538461542</v>
+        <v>6.0606060606060606</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
@@ -2869,11 +2869,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>6.1538461538461542</v>
+        <v>7.5757575757575761</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>4.6153846153846159</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>1.5384615384615385</v>
+        <v>1.5151515151515151</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>4.6153846153846159</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>6.1538461538461542</v>
+        <v>6.0606060606060606</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>3.0769230769230771</v>
+        <v>3.0303030303030303</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>9.2307692307692317</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>3.0769230769230771</v>
+        <v>3.0303030303030303</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>7.6923076923076925</v>
+        <v>7.5757575757575761</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>4.6153846153846159</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>3.0769230769230771</v>
+        <v>3.0303030303030303</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>4.6153846153846159</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>3.0769230769230771</v>
+        <v>3.0303030303030303</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>7.6923076923076925</v>
+        <v>7.5757575757575761</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S22">
         <f>SUM(S2:S21)</f>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>47.692307692307693</v>
+        <v>48.484848484848492</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>52.307692307692314</v>
+        <v>51.515151515151523</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
+++ b/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0709C97F-EEED-4FFD-8ECC-A39D76877CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEECB60C-D46A-47EC-9294-858FAA7FEB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -324,7 +324,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5</c:v>
@@ -333,7 +333,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
@@ -348,10 +348,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3</c:v>
@@ -366,7 +366,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -978,7 +978,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5</c:v>
@@ -987,7 +987,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
@@ -1002,10 +1002,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3</c:v>
@@ -1020,7 +1020,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2705,8 +2705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8EF6D9-5AD5-43CA-9518-DC5AA8E532CB}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>4.5454545454545459</v>
+        <v>4.0540540540540544</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>9.0909090909090917</v>
+        <v>8.1081081081081088</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>7.5757575757575761</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>3.0303030303030303</v>
+        <v>2.7027027027027026</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1">
@@ -2829,11 +2829,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>6.0606060606060606</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>7.5757575757575761</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>4.5454545454545459</v>
+        <v>4.0540540540540544</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1">
@@ -2911,11 +2911,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>1.5151515151515151</v>
+        <v>5.4054054054054053</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>4.5454545454545459</v>
+        <v>4.0540540540540544</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>6.0606060606060606</v>
+        <v>5.4054054054054053</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>3.0303030303030303</v>
+        <v>2.7027027027027026</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>9.0909090909090917</v>
+        <v>8.1081081081081088</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
@@ -3016,11 +3016,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>3.0303030303030303</v>
+        <v>5.4054054054054053</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
@@ -3037,11 +3037,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>7.5757575757575761</v>
+        <v>8.1081081081081088</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>4.5454545454545459</v>
+        <v>4.0540540540540544</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>3.0303030303030303</v>
+        <v>2.7027027027027026</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>4.5454545454545459</v>
+        <v>4.0540540540540544</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>3.0303030303030303</v>
+        <v>2.7027027027027026</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
@@ -3145,11 +3145,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>7.5757575757575761</v>
+        <v>8.1081081081081088</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="S22">
         <f>SUM(S2:S21)</f>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>48.484848484848492</v>
+        <v>48.648648648648653</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3196,11 +3196,11 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>51.515151515151523</v>
+        <v>51.351351351351354</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">

--- a/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
+++ b/DnData/D20/NJT/MYLUCK_22Camp_Blixt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\DnData\D20\NJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEECB60C-D46A-47EC-9294-858FAA7FEB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA0D35D-AF69-4737-856F-3CF8E8E417BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{555EC10F-2DA9-4A2E-ABDF-A872F8AFBE1A}"/>
   </bookViews>
@@ -53,13 +53,13 @@
     <t>Above 10:</t>
   </si>
   <si>
-    <t xml:space="preserve">(Nate DM-1) </t>
-  </si>
-  <si>
     <t>Start: Winter 22 (1/23/22)</t>
   </si>
   <si>
-    <t>8 Completed</t>
+    <t>10 Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Nate DM-2) </t>
   </si>
 </sst>
 </file>
@@ -312,10 +312,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -327,31 +327,31 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3</c:v>
@@ -966,10 +966,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -981,31 +981,31 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3</c:v>
@@ -2706,7 +2706,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2745,11 +2745,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
         <f>B2/B22 * 100</f>
-        <v>4.0540540540540544</v>
+        <v>4.8780487804878048</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1">
@@ -2766,11 +2766,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <f>B3/B22 * 100</f>
-        <v>8.1081081081081088</v>
+        <v>8.536585365853659</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="C4" s="3">
         <f>B4/B22 * 100</f>
-        <v>6.756756756756757</v>
+        <v>6.0975609756097562</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="C5" s="3">
         <f>B5/B22 * 100</f>
-        <v>2.7027027027027026</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="C6" s="3">
         <f>B6/B22 * 100</f>
-        <v>6.756756756756757</v>
+        <v>6.0975609756097562</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1">
@@ -2869,11 +2869,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3">
         <f>B8/B22 * 100</f>
-        <v>6.756756756756757</v>
+        <v>7.3170731707317067</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C9" s="3">
         <f>B9/B22 * 100</f>
-        <v>4.0540540540540544</v>
+        <v>3.6585365853658534</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1">
@@ -2911,11 +2911,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3">
         <f>B10/B22 * 100</f>
-        <v>5.4054054054054053</v>
+        <v>6.0975609756097562</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C11" s="3">
         <f>B11/B22 * 100</f>
-        <v>4.0540540540540544</v>
+        <v>3.6585365853658534</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1">
@@ -2953,11 +2953,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3">
         <f>B12/B22 * 100</f>
-        <v>5.4054054054054053</v>
+        <v>6.0975609756097562</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1">
@@ -2974,11 +2974,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3">
         <f>B13/B22 * 100</f>
-        <v>2.7027027027027026</v>
+        <v>3.6585365853658534</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="C14" s="3">
         <f>B14/B22 * 100</f>
-        <v>8.1081081081081088</v>
+        <v>7.3170731707317067</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1">
@@ -3016,11 +3016,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3">
         <f>B15/B22 * 100</f>
-        <v>5.4054054054054053</v>
+        <v>6.0975609756097562</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
@@ -3037,11 +3037,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3">
         <f>B16/B22 * 100</f>
-        <v>8.1081081081081088</v>
+        <v>8.536585365853659</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="C17" s="3">
         <f>B17/B22 * 100</f>
-        <v>4.0540540540540544</v>
+        <v>3.6585365853658534</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C18" s="3">
         <f>B18/B22 * 100</f>
-        <v>2.7027027027027026</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C19" s="3">
         <f>B19/B22 * 100</f>
-        <v>4.0540540540540544</v>
+        <v>3.6585365853658534</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="C20" s="3">
         <f>B20/B22 * 100</f>
-        <v>2.7027027027027026</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C21" s="3">
         <f>B21/B22 * 100</f>
-        <v>8.1081081081081088</v>
+        <v>7.3170731707317067</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
@@ -3163,11 +3163,11 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <f>SUM(B2:B21)</f>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="S22">
         <f>SUM(S2:S21)</f>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B11)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C2:C11)</f>
-        <v>48.648648648648653</v>
+        <v>48.780487804878035</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3196,21 +3196,21 @@
       </c>
       <c r="B25">
         <f>SUM(B12:B21)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3">
         <f>SUM(C12:C21)</f>
-        <v>51.351351351351354</v>
+        <v>51.219512195121936</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
